--- a/data/List002.xlsx
+++ b/data/List002.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studieboeken\learnexcel\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48E8FEC-50D7-4DA5-92BD-7AB25247E5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="27840" windowHeight="12585"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,9 +64,6 @@
     <t>bert</t>
   </si>
   <si>
-    <t>mark</t>
-  </si>
-  <si>
     <t>Final result</t>
   </si>
   <si>
@@ -68,12 +71,15 @@
   </si>
   <si>
     <t>re-examination</t>
+  </si>
+  <si>
+    <t>grade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -106,7 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -114,14 +120,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -159,7 +168,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -231,7 +240,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,7 +413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -420,13 +429,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -434,13 +443,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
